--- a/docs/assets/data/xlexamples/phx_budget_2019.xlsx
+++ b/docs/assets/data/xlexamples/phx_budget_2019.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shcohen1/Documents/GitHub/cronkite-docs/docs/assets/data/xlexamples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C221AF6-3DBC-344B-8454-959A075F6BCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B5B7D14-767C-9D41-8EA1-4EF8F808292B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5220" yWindow="4100" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Budget estimates" sheetId="1" r:id="rId1"/>
+    <sheet name="Sources and notes" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>General Government</t>
   </si>
@@ -75,26 +76,55 @@
     <t>budget_category</t>
   </si>
   <si>
-    <t>actual_2014</t>
-  </si>
-  <si>
-    <t>estimated_2019</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
     <t>Population</t>
+  </si>
+  <si>
+    <t>actual_2014_15</t>
+  </si>
+  <si>
+    <t>estimated_2019_20</t>
+  </si>
+  <si>
+    <t>All data is from the Phoenix City government site, extracted from the "Summary budget book" for FY 2015-16 and 2020-21.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The reason to take it from the following year's budget book is because those are projections into the future -- the previous year is an actual estimate by the time they publish it. </t>
+  </si>
+  <si>
+    <t>All of the budget documents are on this site: https://www.phoenix.gov/budget/budget-books</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Details on the 2019-20 budget are included in the "Summary Budget Book". Pages 181-182 show more details on what is included in each category. </t>
+  </si>
+  <si>
+    <t>Population figures were taken from the Census Bureau's Population Estimates program based on July 1 each year. The populations shown are for the beginning of fiscal year (eg, July 1, 2014 and July 1, 2019. )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">These are called "vintage 2019" estimates, the most recent available as of December 2020. </t>
+  </si>
+  <si>
+    <t>https://www.census.gov/data/tables/time-series/demo/popest/2010s-total-cities-and-towns.html#tables</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -117,14 +147,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -439,16 +472,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
+    <sheetView zoomScale="127" zoomScaleNormal="127" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="7.5" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -459,10 +490,10 @@
         <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -635,7 +666,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1">
         <v>2303117</v>
@@ -646,13 +677,72 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1">
         <v>1555445</v>
       </c>
       <c r="D16" s="1">
         <v>1680992</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1564A87-B4CF-364E-A57E-A0C3FB1AED43}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="159.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="str">
+        <f>HYPERLINK("https://www.phoenix.gov/budget/budget-books")</f>
+        <v>https://www.phoenix.gov/budget/budget-books</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
